--- a/pastmsexam/2017/Spring2017/ob_prob1.xlsx
+++ b/pastmsexam/2017/Spring2017/ob_prob1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bw9893\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric A. Suess\Documents\GitHub\msexam\pastmsexam\2017\Spring2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C88B1E-A4CB-47AE-9B98-812288DFDC4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17840" windowHeight="6560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25755" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,21 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +520,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -550,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>59</v>
       </c>
@@ -579,7 +578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>52</v>
       </c>
@@ -608,7 +607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>61</v>
       </c>
@@ -637,7 +636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>63</v>
       </c>
@@ -666,7 +665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>64</v>
       </c>
@@ -695,7 +694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>51</v>
       </c>
@@ -724,7 +723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>50</v>
       </c>
@@ -753,7 +752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>60</v>
       </c>
@@ -782,7 +781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>66</v>
       </c>
@@ -811,7 +810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>69</v>
       </c>

--- a/pastmsexam/2017/Spring2017/ob_prob1.xlsx
+++ b/pastmsexam/2017/Spring2017/ob_prob1.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric A. Suess\Documents\GitHub\msexam\pastmsexam\2017\Spring2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C88B1E-A4CB-47AE-9B98-812288DFDC4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5669A318-751B-486B-95B9-582C28E86154}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25755" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="21225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ob_prob1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+  <si>
+    <t>Open Book #1</t>
+  </si>
   <si>
     <t>Conflict Management</t>
   </si>
@@ -44,15 +42,12 @@
   <si>
     <t>Office 3</t>
   </si>
-  <si>
-    <t>Open Book #1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +55,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -78,99 +373,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,42 +395,181 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,7 +601,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -258,7 +613,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -275,9 +630,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,14 +660,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -340,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,351 +880,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" t="s">
         <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>59</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>81</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>62</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>48</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4">
         <v>53</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>51</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4">
         <v>54</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>52</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>46</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>65</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>47</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>48</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5">
         <v>42</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>44</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5">
         <v>51</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>61</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>52</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>66</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>43</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>51</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>49</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>52</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6">
         <v>55</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>63</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>55</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>59</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>41</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>55</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>53</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>42</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7">
         <v>53</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>64</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>45</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>66</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>41</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>46</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>68</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>51</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>79</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>59</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>44</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>46</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>26</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
         <v>47</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>54</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>65</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>40</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>44</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>65</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
         <v>42</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10">
         <v>49</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>60</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>67</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>49</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11">
         <v>56</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11">
         <v>50</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11">
         <v>50</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>66</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>61</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>61</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>44</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>49</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12">
         <v>52</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12">
         <v>51</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12">
         <v>49</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>69</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>45</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>67</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13">
         <v>46</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>42</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>38</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13">
         <v>42</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13">
         <v>49</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13">
         <v>60</v>
       </c>
     </row>
